--- a/cv_extracted_results_improved.xlsx
+++ b/cv_extracted_results_improved.xlsx
@@ -484,17 +484,17 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>S1 Sistem Informasi</t>
+          <t>) 2022 – 2022</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Express, Git, Laravel, Nodejs, Rest</t>
+          <t>Laravel, Nodejs, REST</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:51</t>
+          <t>2025-11-09 20:21:42</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ipa</t>
+          <t>Ipa Pada Sma Mempersiapkan Siswa Untuk</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:51</t>
+          <t>2025-11-09 20:21:42</t>
         </is>
       </c>
     </row>
@@ -550,17 +550,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>S1 Information System - Ipk</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Android Studio, Canva, Css, Figma, Git, Go, Html, Illustrator, Java, Javascript, Mysql, Php, Power Bi, React, Rest, Trello</t>
+          <t>Android Studio, CSS, Canva, Figma, Git, Github, Go, HTML, Illustrator, Java, Javascript, Mysql, Php, Power Bi, Trello</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:51</t>
+          <t>2025-11-09 20:21:42</t>
         </is>
       </c>
     </row>
@@ -582,17 +582,17 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ipa</t>
+          <t>Ipa Pada Sma Mempersiapkan Siswa Untuk</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Figma, Go, Java, Kotlin, Laravel, Php</t>
+          <t>Go, Java, Kotlin, Laravel, Php</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -601,7 +601,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:52</t>
+          <t>2025-11-09 20:21:43</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>S1 Sistem Informasi Agustus</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -622,11 +622,11 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Css, Git, Go, Html, Java, Javascript, Laravel, Mysql, Php, Rest</t>
+          <t>CSS, Go, HTML, Java, Javascript, Laravel, Mysql, Php</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -635,7 +635,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:52</t>
+          <t>2025-11-09 20:21:43</t>
         </is>
       </c>
     </row>
@@ -659,7 +659,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:52</t>
+          <t>2025-11-09 20:21:43</t>
         </is>
       </c>
     </row>
@@ -672,13 +672,13 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Dkv</t>
+          <t>Desain Komunikasi Visual</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Coreldraw, Git, Go, Illustrator, Photoshop, Rest</t>
+          <t>Coreldraw, Git, Go, Illustrator, Photoshop, REST</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -691,7 +691,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:52</t>
+          <t>2025-11-09 20:21:43</t>
         </is>
       </c>
     </row>
@@ -704,13 +704,13 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>S1 Si Tahun</t>
+          <t>S1 Si 2022 (sie Perlengkapan)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Css, Go, Html, Java, Javascript, Php</t>
+          <t>CSS, Go, HTML, Java, Javascript, Php</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -723,7 +723,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:52</t>
+          <t>2025-11-09 20:21:43</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
-          <t>S1 Sistem Informasi Universitas Dinamika Surabaya</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:53</t>
+          <t>2025-11-09 20:21:43</t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:53</t>
+          <t>2025-11-09 20:21:43</t>
         </is>
       </c>
     </row>
@@ -807,7 +807,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:53</t>
+          <t>2025-11-09 20:21:44</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:53</t>
+          <t>2025-11-09 20:21:44</t>
         </is>
       </c>
     </row>
@@ -848,7 +848,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr">
         <is>
-          <t>S1 Sistem Informasi Universitas Dinamika Semester</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D14" t="n">
@@ -856,11 +856,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Canva, Css, Git, Go, Html, Java, Javascript, Laravel, Mysql, Php</t>
+          <t>CSS, HTML, Java, Javascript, Laravel, Mysql, Php</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:53</t>
+          <t>2025-11-09 20:21:44</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ipa</t>
+          <t>Sistem Informasi</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -890,7 +890,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Css, Html, Java, Javascript, Laravel, Mysql, Php</t>
+          <t>CSS, HTML, Java, Javascript, Laravel, Mysql, Php</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -903,7 +903,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:54</t>
+          <t>2025-11-09 20:21:44</t>
         </is>
       </c>
     </row>
@@ -918,11 +918,11 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Flutter, Git, Java, Laravel</t>
+          <t>Git</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -931,7 +931,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:54</t>
+          <t>2025-11-09 20:21:44</t>
         </is>
       </c>
     </row>
@@ -959,7 +959,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:54</t>
+          <t>2025-11-09 20:21:45</t>
         </is>
       </c>
     </row>
@@ -969,29 +969,31 @@
           <t>Moh Anton Radiansyah</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
+      <c r="B18" t="n">
+        <v>3.46</v>
+      </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>S1 Desain Komunikasi Visual Dengan Minat Yang Kuat Dalam Dunia Kreatif Dan Digital</t>
+          <t>S1 Desain Komunikasi Visual</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Canva, Git, Go, Illustrator, Photoshop, Rest</t>
+          <t>Canva, Illustrator, Photoshop, REST</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:54</t>
+          <t>2025-11-09 20:21:45</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1006,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
-          <t>S1 Dkv</t>
+          <t>S1 Desain Komunikasi Visual</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1023,7 +1025,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:54</t>
+          <t>2025-11-09 20:21:45</t>
         </is>
       </c>
     </row>
@@ -1033,10 +1035,12 @@
           <t>Farhannur Priambodo</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
+      <c r="B20" t="n">
+        <v>3.74</v>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D3 Sistem Informasi Yang Sekarang Sedang Melanjutkan Studi</t>
+          <t>D3 Sistem</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1050,12 +1054,12 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:45</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1078,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>C#, Css, Figma, Html, Java, Javascript, Php</t>
+          <t>C#, CSS, Figma, HTML, Java, Javascript, Premiere</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1087,7 +1091,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:45</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1115,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:45</t>
         </is>
       </c>
     </row>
@@ -1139,7 +1143,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:45</t>
         </is>
       </c>
     </row>
@@ -1167,7 +1171,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:46</t>
         </is>
       </c>
     </row>
@@ -1180,17 +1184,17 @@
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>S1 Teknik Komputer Disiplin Smkn</t>
+          <t>S1 Teknik Komputer</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>C++, Canva, Python</t>
+          <t>Canva</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1199,7 +1203,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:46</t>
         </is>
       </c>
     </row>
@@ -1212,13 +1216,13 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D3 Sistem Informasi Di Universitas Dinamika</t>
+          <t>Desain Komunikasi Visual</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Android Studio, Css, Git, Go, Html, Java</t>
+          <t>Android Studio, CSS, Git, Go, HTML, Java</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1231,7 +1235,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:46</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1259,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:55</t>
+          <t>2025-11-09 20:21:46</t>
         </is>
       </c>
     </row>
@@ -1265,29 +1269,31 @@
           <t>Albert Universitas Dinamika</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr"/>
+      <c r="B28" t="n">
+        <v>3.51</v>
+      </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>S1 Teknik Komputer Dengan Minat Besar Di Bidang Pengembangan Perangkat Lunak</t>
+          <t>S1 Teknik Komputer</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>C++, Git, Go, Python</t>
+          <t>C++, Go, Python</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK</t>
+          <t>Success</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:56</t>
+          <t>2025-11-09 20:21:46</t>
         </is>
       </c>
     </row>
@@ -1300,13 +1306,13 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>D3 Sistem Informasi Universitas Dinamika Dengan Minat Hubungi Di Ui</t>
+          <t>D3 Sistem Informasi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Canva, Css, Figma, Git, Go, Html, Java, Javascript, Oracle, Php</t>
+          <t>CSS, Canva, Figma, Git, Go, HTML, Java, Javascript, Oracle, Php</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1319,7 +1325,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:56</t>
+          <t>2025-11-09 20:21:46</t>
         </is>
       </c>
     </row>
@@ -1329,27 +1335,25 @@
           <t>Ats Wahyu Adinda Nur Ashifa Kidzania</t>
         </is>
       </c>
-      <c r="B30" t="n">
-        <v>4</v>
-      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Figma, Git, Go, Java, Photoshop, Trello</t>
+          <t>Figma, Git, Github, Photoshop, Trello</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Partial - Missing: Jurusan</t>
+          <t>Partial - Missing: IPK, Jurusan</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:56</t>
+          <t>2025-11-09 20:21:47</t>
         </is>
       </c>
     </row>
@@ -1362,7 +1366,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>S1 Teknik Komputer Universitas Dinamika</t>
+          <t>S1 Teknik Komputer</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -1381,7 +1385,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:57</t>
+          <t>2025-11-09 20:21:47</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1398,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
-          <t>S1 Teknik Komputer Jujur Smk Negeri</t>
+          <t>S1 Teknik Komputer</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -1413,7 +1417,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:57</t>
+          <t>2025-11-09 20:21:47</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1430,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>S1 Teknik Komputer Proteus Juara</t>
+          <t>S1 Teknik Komputer</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -1445,7 +1449,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-11-09 16:31:57</t>
+          <t>2025-11-09 20:21:47</t>
         </is>
       </c>
     </row>
@@ -1458,17 +1462,17 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>S1 Teknik Komputer Universitas Dinamika</t>
+          <t>S1 Teknik Komputer</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>C++, Canva, Git, Go</t>
+          <t>C++, Canva, Go</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1477,7 +1481,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-11-09 16:32:00</t>
+          <t>2025-11-09 20:21:51</t>
         </is>
       </c>
     </row>

--- a/cv_extracted_results_improved.xlsx
+++ b/cv_extracted_results_improved.xlsx
@@ -484,7 +484,7 @@
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>) 2022 – 2022</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -503,7 +503,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:42</t>
+          <t>2025-11-09 21:53:21</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ipa Pada Sma Mempersiapkan Siswa Untuk</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -535,7 +535,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:42</t>
+          <t>2025-11-09 21:53:21</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:42</t>
+          <t>2025-11-09 21:53:21</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ipa Pada Sma Mempersiapkan Siswa Untuk</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -601,7 +601,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:43</t>
+          <t>2025-11-09 21:53:22</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:43</t>
+          <t>2025-11-09 21:53:22</t>
         </is>
       </c>
     </row>
@@ -646,20 +646,28 @@
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>S1 Desain Komunikasi Visual</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Go, Illustrator, Photoshop, Premiere</t>
+        </is>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Failed - No text extracted</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:43</t>
+          <t>2025-11-09 21:53:24</t>
         </is>
       </c>
     </row>
@@ -672,7 +680,7 @@
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Desain Komunikasi Visual</t>
+          <t>S1 Desain Komunikasi Visual</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -691,7 +699,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:43</t>
+          <t>2025-11-09 21:53:24</t>
         </is>
       </c>
     </row>
@@ -704,7 +712,7 @@
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>S1 Si 2022 (sie Perlengkapan)</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -723,7 +731,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:43</t>
+          <t>2025-11-09 21:53:24</t>
         </is>
       </c>
     </row>
@@ -755,7 +763,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:43</t>
+          <t>2025-11-09 21:53:25</t>
         </is>
       </c>
     </row>
@@ -779,7 +787,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:43</t>
+          <t>2025-11-09 21:53:25</t>
         </is>
       </c>
     </row>
@@ -790,7 +798,11 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>S1 Desain Komunikasi Visual</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
@@ -802,12 +814,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK, Jurusan</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:44</t>
+          <t>2025-11-09 21:53:25</t>
         </is>
       </c>
     </row>
@@ -835,7 +847,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:44</t>
+          <t>2025-11-09 21:53:25</t>
         </is>
       </c>
     </row>
@@ -869,7 +881,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:44</t>
+          <t>2025-11-09 21:53:25</t>
         </is>
       </c>
     </row>
@@ -882,7 +894,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sistem Informasi</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -903,7 +915,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:44</t>
+          <t>2025-11-09 21:53:25</t>
         </is>
       </c>
     </row>
@@ -931,7 +943,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:44</t>
+          <t>2025-11-09 21:53:25</t>
         </is>
       </c>
     </row>
@@ -942,7 +954,11 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>S1 Sistem Informasi</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
@@ -954,19 +970,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK, Jurusan</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:45</t>
+          <t>2025-11-09 21:53:26</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Moh Anton Radiansyah</t>
+          <t>Moh Anton Radiansyah Portofolio</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -993,7 +1009,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:45</t>
+          <t>2025-11-09 21:53:26</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1041,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:45</t>
+          <t>2025-11-09 21:53:26</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1056,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D3 Sistem</t>
+          <t>D3 Sistem Informasi</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1059,7 +1075,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:45</t>
+          <t>2025-11-09 21:53:26</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1107,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:45</t>
+          <t>2025-11-09 21:53:27</t>
         </is>
       </c>
     </row>
@@ -1102,20 +1118,28 @@
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>S1 Desain Komunikasi Visual</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Illustrator, Photoshop</t>
+        </is>
+      </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Failed - No text extracted</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:45</t>
+          <t>2025-11-09 21:53:30</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1150,11 @@
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>S1 Desain Komunikasi Visual</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
@@ -1138,12 +1166,12 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK, Jurusan</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:45</t>
+          <t>2025-11-09 21:53:30</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1182,11 @@
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>S1 Teknik Komputer</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
@@ -1166,12 +1198,12 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK, Jurusan</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:46</t>
+          <t>2025-11-09 21:53:30</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1235,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:46</t>
+          <t>2025-11-09 21:53:30</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1248,7 @@
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Desain Komunikasi Visual</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1267,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:46</t>
+          <t>2025-11-09 21:53:30</t>
         </is>
       </c>
     </row>
@@ -1246,20 +1278,28 @@
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>S1 Desain Komunikasi Visual</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Illustrator, Photoshop</t>
+        </is>
+      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Failed - No text extracted</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:46</t>
+          <t>2025-11-09 21:53:32</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1333,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:46</t>
+          <t>2025-11-09 21:53:33</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1346,7 @@
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>D3 Sistem Informasi</t>
+          <t>S1 Sistem Informasi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -1325,7 +1365,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:46</t>
+          <t>2025-11-09 21:53:33</t>
         </is>
       </c>
     </row>
@@ -1336,7 +1376,11 @@
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>S1 Sistem Informasi</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
@@ -1348,12 +1392,12 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Partial - Missing: IPK, Jurusan</t>
+          <t>Partial - Missing: IPK</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:47</t>
+          <t>2025-11-09 21:53:33</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1429,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:47</t>
+          <t>2025-11-09 21:53:33</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1461,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:47</t>
+          <t>2025-11-09 21:53:33</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1493,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:47</t>
+          <t>2025-11-09 21:53:34</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1525,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>2025-11-09 20:21:51</t>
+          <t>2025-11-09 21:53:37</t>
         </is>
       </c>
     </row>
